--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportDebt.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L1-顧客管理作業/FinReportDebt.xlsx
@@ -1,21 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L1-顧客管理作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{490E5090-40ED-4B05-B0AD-F89DA6FAF5E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -438,10 +449,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>UKey</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>StartMM</t>
   </si>
   <si>
@@ -676,9 +683,6 @@
   <si>
     <t>UnControlRight</t>
     <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustUKey,UKey</t>
   </si>
   <si>
     <t xml:space="preserve">CustUKey = </t>
@@ -714,13 +718,21 @@
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ukey</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustUKey,Ukey</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -966,8 +978,8 @@
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1058,6 +1070,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1093,6 +1122,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1268,11 +1314,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1292,10 +1338,10 @@
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="8" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E1" s="10"/>
       <c r="F1" s="11"/>
@@ -1320,7 +1366,7 @@
       </c>
       <c r="B3" s="23"/>
       <c r="C3" s="8" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="14"/>
@@ -1419,7 +1465,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>28</v>
@@ -1439,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C11" s="18" t="s">
         <v>29</v>
@@ -1459,10 +1505,10 @@
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>112</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>113</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>30</v>
@@ -1479,10 +1525,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>30</v>
@@ -1499,10 +1545,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>30</v>
@@ -1519,7 +1565,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C15" s="18" t="s">
         <v>31</v>
@@ -1559,7 +1605,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C17" s="18" t="s">
         <v>35</v>
@@ -1579,7 +1625,7 @@
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C18" s="18" t="s">
         <v>36</v>
@@ -1599,7 +1645,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>37</v>
@@ -1619,7 +1665,7 @@
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C20" s="18" t="s">
         <v>38</v>
@@ -1639,7 +1685,7 @@
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="18" t="s">
         <v>39</v>
@@ -1659,7 +1705,7 @@
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C22" s="18" t="s">
         <v>40</v>
@@ -1679,7 +1725,7 @@
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C23" s="18" t="s">
         <v>41</v>
@@ -1699,7 +1745,7 @@
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>42</v>
@@ -1719,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>43</v>
@@ -1739,10 +1785,10 @@
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D26" s="18" t="s">
         <v>44</v>
@@ -1799,10 +1845,10 @@
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>32</v>
@@ -1859,7 +1905,7 @@
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C32" s="18" t="s">
         <v>53</v>
@@ -1879,7 +1925,7 @@
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C33" s="18" t="s">
         <v>54</v>
@@ -1899,7 +1945,7 @@
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C34" s="18" t="s">
         <v>55</v>
@@ -1919,7 +1965,7 @@
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C35" s="18" t="s">
         <v>56</v>
@@ -1939,7 +1985,7 @@
         <v>28</v>
       </c>
       <c r="B36" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C36" s="18" t="s">
         <v>57</v>
@@ -1959,7 +2005,7 @@
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C37" s="18" t="s">
         <v>58</v>
@@ -1979,7 +2025,7 @@
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C38" s="18" t="s">
         <v>59</v>
@@ -1999,7 +2045,7 @@
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C39" s="18" t="s">
         <v>60</v>
@@ -2019,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C40" s="18" t="s">
         <v>61</v>
@@ -2039,7 +2085,7 @@
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C41" s="18" t="s">
         <v>62</v>
@@ -2082,7 +2128,7 @@
         <v>65</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D43" s="18" t="s">
         <v>44</v>
@@ -2142,7 +2188,7 @@
         <v>70</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D46" s="18" t="s">
         <v>32</v>
@@ -2199,7 +2245,7 @@
         <v>41</v>
       </c>
       <c r="B49" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C49" s="20" t="s">
         <v>75</v>
@@ -2219,7 +2265,7 @@
         <v>42</v>
       </c>
       <c r="B50" s="18" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C50" s="18" t="s">
         <v>76</v>
@@ -2239,7 +2285,7 @@
         <v>43</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C51" s="18" t="s">
         <v>77</v>
@@ -2259,7 +2305,7 @@
         <v>44</v>
       </c>
       <c r="B52" s="18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C52" s="18" t="s">
         <v>78</v>
@@ -2279,7 +2325,7 @@
         <v>45</v>
       </c>
       <c r="B53" s="18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C53" s="18" t="s">
         <v>79</v>
@@ -2299,7 +2345,7 @@
         <v>46</v>
       </c>
       <c r="B54" s="18" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C54" s="18" t="s">
         <v>80</v>
@@ -2319,7 +2365,7 @@
         <v>47</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C55" s="18" t="s">
         <v>81</v>
@@ -2339,7 +2385,7 @@
         <v>48</v>
       </c>
       <c r="B56" s="18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C56" s="18" t="s">
         <v>82</v>
@@ -2359,7 +2405,7 @@
         <v>49</v>
       </c>
       <c r="B57" s="18" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C57" s="18" t="s">
         <v>83</v>
@@ -2379,7 +2425,7 @@
         <v>50</v>
       </c>
       <c r="B58" s="18" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C58" s="18" t="s">
         <v>84</v>
@@ -2399,7 +2445,7 @@
         <v>51</v>
       </c>
       <c r="B59" s="18" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C59" s="18" t="s">
         <v>109</v>
@@ -2419,7 +2465,7 @@
         <v>52</v>
       </c>
       <c r="B60" s="18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C60" s="18" t="s">
         <v>85</v>
@@ -2442,7 +2488,7 @@
         <v>86</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D61" s="18" t="s">
         <v>44</v>
@@ -2499,10 +2545,10 @@
         <v>56</v>
       </c>
       <c r="B64" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C64" s="18" t="s">
         <v>125</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>126</v>
       </c>
       <c r="D64" s="18" t="s">
         <v>30</v>
@@ -2559,7 +2605,7 @@
         <v>59</v>
       </c>
       <c r="B67" s="18" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" s="18" t="s">
         <v>95</v>
@@ -2579,7 +2625,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C68" s="18" t="s">
         <v>96</v>
@@ -2599,7 +2645,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C69" s="18" t="s">
         <v>97</v>
@@ -2619,7 +2665,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C70" s="18" t="s">
         <v>98</v>
@@ -2639,7 +2685,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C71" s="18" t="s">
         <v>99</v>
@@ -2659,7 +2705,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C72" s="18" t="s">
         <v>100</v>
@@ -2679,7 +2725,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C73" s="18" t="s">
         <v>101</v>
@@ -2699,7 +2745,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C74" s="18" t="s">
         <v>102</v>
@@ -2719,7 +2765,7 @@
         <v>67</v>
       </c>
       <c r="B75" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C75" s="18" t="s">
         <v>103</v>
@@ -2739,7 +2785,7 @@
         <v>68</v>
       </c>
       <c r="B76" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C76" s="18" t="s">
         <v>104</v>
@@ -2759,10 +2805,10 @@
         <v>69</v>
       </c>
       <c r="B77" s="18" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D77" s="18" t="s">
         <v>44</v>
@@ -2799,10 +2845,10 @@
         <v>71</v>
       </c>
       <c r="B79" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D79" s="18" t="s">
         <v>30</v>
@@ -2877,7 +2923,7 @@
         <v>75</v>
       </c>
       <c r="B83" s="18" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C83" s="18" t="s">
         <v>23</v>
@@ -2895,7 +2941,7 @@
         <v>76</v>
       </c>
       <c r="B84" s="18" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C84" s="18" t="s">
         <v>24</v>
@@ -3340,7 +3386,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -3372,15 +3418,15 @@
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
